--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6816" windowHeight="6696" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6816" windowHeight="6696" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="marginal costs" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,13 +385,13 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
       <c r="D2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,10 +428,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -40,7 +40,7 @@
     <t>electricity</t>
   </si>
   <si>
-    <t>atom</t>
+    <t>nuclear</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
